--- a/chords_config/chord_config.xlsx
+++ b/chords_config/chord_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_app\Guitar_Chords_GUI_APP\chords_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D57B4A-4063-4FAD-BF3A-D35409C06326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBE673E-8E66-4A92-B1C9-A6C237DF6A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2240,10 +2240,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2251,6 +2251,38 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2379,30 +2411,6 @@
       </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2427,14 +2435,14 @@
     <tableColumn id="2" xr3:uid="{CDFF5103-40D7-4B0E-9D19-1E152CAFA783}" name="VARIANT"/>
     <tableColumn id="25" xr3:uid="{D30F0CD1-2D92-4A87-AC58-A527D28A6DEE}" name="RAM"/>
     <tableColumn id="4" xr3:uid="{A8FC08C7-57C8-4088-91C9-28568F32EAE9}" name="BAR"/>
-    <tableColumn id="6" xr3:uid="{24A44A2F-377D-4869-920D-48B0ACB95240}" name="FNL" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{66566D65-87F0-42FD-9F38-BCA2EE4E45E9}" name="FN" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{AD855546-C2D3-4A2C-9DE8-CF1CA2A2421B}" name="FPOL" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{A99F4C04-ED9A-466F-AC62-329F1326E313}" name="FPXL" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{D4931CCA-70DA-4206-A0DD-32B74EEF5317}" name="FP1" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{73C19249-8303-48C5-B8D0-F9BEF2B39194}" name="FP2" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{FCF00674-E17E-4D1D-AFE8-89FA0B5A4AA5}" name="FP3" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{04F3B629-15EF-45B2-B74C-102FE00DA6CA}" name="FP4" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{24A44A2F-377D-4869-920D-48B0ACB95240}" name="FNL" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{66566D65-87F0-42FD-9F38-BCA2EE4E45E9}" name="FN" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{AD855546-C2D3-4A2C-9DE8-CF1CA2A2421B}" name="FPOL" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A99F4C04-ED9A-466F-AC62-329F1326E313}" name="FPXL" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D4931CCA-70DA-4206-A0DD-32B74EEF5317}" name="FP1" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{73C19249-8303-48C5-B8D0-F9BEF2B39194}" name="FP2" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{FCF00674-E17E-4D1D-AFE8-89FA0B5A4AA5}" name="FP3" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{04F3B629-15EF-45B2-B74C-102FE00DA6CA}" name="FP4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2445,7 +2453,7 @@
   <autoFilter ref="A1:B91" xr:uid="{BA941AC9-1FBA-4E15-9B3E-CB7883E11A10}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1188C2AB-F636-4651-9EFE-71BC1FF0A137}" name="FNL"/>
-    <tableColumn id="2" xr3:uid="{CDEFF565-797A-46DB-80AE-DC7DA9EBE6AD}" name="FNL_ELEM" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CDEFF565-797A-46DB-80AE-DC7DA9EBE6AD}" name="FNL_ELEM" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2456,19 +2464,19 @@
   <autoFilter ref="C1:P91" xr:uid="{9A458692-130A-4D93-BD48-FD6B5E59FA7B}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{FA65D4AD-569D-463F-AE84-63093BDE16CA}" name="FN"/>
-    <tableColumn id="2" xr3:uid="{62242CF7-4D7B-4763-88C0-6E9252994AB3}" name="FN_ELEM" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{62242CF7-4D7B-4763-88C0-6E9252994AB3}" name="FN_ELEM" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{399500B8-10FF-47AF-B535-9F9D81471501}" name="FPXL"/>
     <tableColumn id="4" xr3:uid="{35991E80-6039-482C-B825-FF666CFCE2C2}" name="FPXL_ELEM"/>
     <tableColumn id="5" xr3:uid="{5CD426B4-D017-441C-9F3C-F2494202EC13}" name="FPOL"/>
     <tableColumn id="6" xr3:uid="{5FC3FAC5-C8BC-4B3E-B473-0A4E8B8434A1}" name="FPOL_ELEM"/>
     <tableColumn id="7" xr3:uid="{895CD20F-C577-4389-88C1-D12986070E1F}" name="FP1"/>
-    <tableColumn id="8" xr3:uid="{90CE228D-9C6B-463D-A86F-E2A743FC0528}" name="FP1_ELEM" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{59F679B7-8398-4586-A5B4-80EDC73CEBBD}" name="FP2" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{16B727CD-AB08-4494-BF8C-D8B588814529}" name="FP2_ELEM" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{0E56EEDC-655F-4663-99E2-B9F7BBDEE781}" name="FP3" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{51908F87-043F-49C0-B6F8-13CB84AFA8B7}" name="FP3_ELEM" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{19E636D3-451E-4F11-865E-1BF2812AA3F5}" name="FP4" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{89133E64-57FB-4746-ADA2-C5348A011A70}" name="FP4_ELEM" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{90CE228D-9C6B-463D-A86F-E2A743FC0528}" name="FP1_ELEM" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{59F679B7-8398-4586-A5B4-80EDC73CEBBD}" name="FP2" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{16B727CD-AB08-4494-BF8C-D8B588814529}" name="FP2_ELEM" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{0E56EEDC-655F-4663-99E2-B9F7BBDEE781}" name="FP3" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{51908F87-043F-49C0-B6F8-13CB84AFA8B7}" name="FP3_ELEM" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{19E636D3-451E-4F11-865E-1BF2812AA3F5}" name="FP4" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{89133E64-57FB-4746-ADA2-C5348A011A70}" name="FP4_ELEM" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2763,7 +2771,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H2" sqref="H2:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3312,8 +3320,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
